--- a/Book_Shop_System/Test Data/TestData.xlsx
+++ b/Book_Shop_System/Test Data/TestData.xlsx
@@ -1,48 +1,237 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAIF KHAN\Desktop\Online_Book_Shop_System\Book_Shop\Book_Shop_System\Test Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5987014A-47B5-46B3-A197-8FA884721B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{443EE8BF-3E85-4AFE-A267-D0EB77750FED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{797C52C8-CA55-4A50-A0A3-1C14D0DE00C4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15660" windowHeight="6015" xr2:uid="{797C52C8-CA55-4A50-A0A3-1C14D0DE00C4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Afshan Mansuri" sheetId="4" r:id="rId1"/>
+    <sheet name="AKmodule" sheetId="4" r:id="rId1"/>
     <sheet name="Kaif Khan" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:E24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+  <si>
+    <t>BookNmae</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrance Exam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Indian Economy </t>
+  </si>
+  <si>
+    <t>General Knowledge 2017</t>
+  </si>
+  <si>
+    <t>Kiran</t>
+  </si>
+  <si>
+    <t>Previous YearsSolved Papers &amp; 10 Practice Sets CMC (Vellore &amp; Ludhiana) Entrance Exam</t>
+  </si>
+  <si>
+    <t>IIM Indore IPM Full Length Test Series (Fully Solved)</t>
+  </si>
+  <si>
+    <t>Marketing Management</t>
+  </si>
+  <si>
+    <t>The Mega Yearbook 2016 - Current Affairs &amp; General Knowledge For Competitive Exams</t>
+  </si>
+  <si>
+    <t>Indian Polity (Civil Services Mains; Csat; Civil Services General)</t>
+  </si>
+  <si>
+    <t>Guide To RRB Non Technical Recruitment Exam</t>
+  </si>
+  <si>
+    <t>General Studies Paper 1</t>
+  </si>
+  <si>
+    <t>Mechanical Engineering</t>
+  </si>
+  <si>
+    <t>Literature and Fiction</t>
+  </si>
+  <si>
+    <t>Chetan Bhagat Collection</t>
+  </si>
+  <si>
+    <t>Ashwin Sanghi Boxset (Set Of 3 Books)</t>
+  </si>
+  <si>
+    <t>Tintin : Complete Adventures Of Tintin</t>
+  </si>
+  <si>
+    <t>Fifty Shades Trilogy (Set of 3 Books)</t>
+  </si>
+  <si>
+    <t>Code Red</t>
+  </si>
+  <si>
+    <t>Love . . . Not for Sale!</t>
+  </si>
+  <si>
+    <t>Ten Love Stories : An IndiBlogger Selection</t>
+  </si>
+  <si>
+    <t>Two Years Eight Months And Twentyeight Nights: A Novel</t>
+  </si>
+  <si>
+    <t>The Girl in the Spider's Web</t>
+  </si>
+  <si>
+    <t>You're Trending In My Dreams</t>
+  </si>
+  <si>
+    <t>Tell Me A Story</t>
+  </si>
+  <si>
+    <t>Go Set A Watchman</t>
+  </si>
+  <si>
+    <t>Academic and Professional</t>
+  </si>
+  <si>
+    <t>Getting A Coding Job For Dummies</t>
+  </si>
+  <si>
+    <t>What Next? A Complete Course &amp; Career Guide After Class 12 In Delhi NCR</t>
+  </si>
+  <si>
+    <t>Iit Foundation For Class-X Science</t>
+  </si>
+  <si>
+    <t>Research Analytics</t>
+  </si>
+  <si>
+    <t>Get a Grip on Grammar</t>
+  </si>
+  <si>
+    <t>Practical Business Analytics Using Sas-A Hands-On Guide</t>
+  </si>
+  <si>
+    <t>Engineering Physics 1st Edition</t>
+  </si>
+  <si>
+    <t>Chemistry For JEE Main And Advanced 2016 (Combo Set Of 3 Books)</t>
+  </si>
+  <si>
+    <t>Mechanics Of Materials</t>
+  </si>
+  <si>
+    <t>Python For Data Science For Dummies</t>
+  </si>
+  <si>
+    <t>Data Science And Big Data Analytics</t>
+  </si>
+  <si>
+    <t>Professional AngularJS</t>
+  </si>
+  <si>
+    <t>Biographies and Auto Biographies</t>
+  </si>
+  <si>
+    <t>Wings Of Fire: An Autobiography</t>
+  </si>
+  <si>
+    <t>The Z Factor : My Journey As The Wrong Man At The Right Time</t>
+  </si>
+  <si>
+    <t>Standing Guard: A Year In Opposition</t>
+  </si>
+  <si>
+    <t>The Turbulent Years: 1980 1996</t>
+  </si>
+  <si>
+    <t>Cracking The Code : My Journey To Bollywood</t>
+  </si>
+  <si>
+    <t>I Am Malala : The Girl Who Stood Up For Education And Was Shot By The Taliban</t>
+  </si>
+  <si>
+    <t>Being Salman</t>
+  </si>
+  <si>
+    <t>M.K. Gandhi An Autobiography</t>
+  </si>
+  <si>
+    <t>Steve Jobs</t>
+  </si>
+  <si>
+    <t>The Substance And The Shadow:An Autobiography Dilip Kumar</t>
+  </si>
+  <si>
+    <t>Shantaram</t>
+  </si>
+  <si>
+    <t>Courage And Conviction : An Autobiography</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Open sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFE43719"/>
+      <name val="Open sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Open sans"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFE43719"/>
+      <name val="Open sans"/>
     </font>
   </fonts>
   <fills count="2">
@@ -65,8 +254,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,13 +584,281 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41BD8C2-5221-46C2-917A-1E2A249A1FB3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="82.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="21" customHeight="1">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="25.5">
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="B31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="B33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="B34" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="B37" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="B39" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="B41" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="B42" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="B43" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="B44" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="B45" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="B46" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="B47" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="B48" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -395,9 +866,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA053F04-BD89-4A6D-97BB-298F30F961A2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book_Shop_System/Test Data/TestData.xlsx
+++ b/Book_Shop_System/Test Data/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAIF KHAN\Desktop\Online_Book_Shop_System\Book_Shop\Book_Shop_System\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5987014A-47B5-46B3-A197-8FA884721B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52A157C-7518-43EF-999E-7C7885BBF93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{797C52C8-CA55-4A50-A0A3-1C14D0DE00C4}"/>
   </bookViews>
@@ -32,6 +32,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>The Book Shop</t>
+  </si>
+  <si>
+    <t>Like a Love Song</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -393,12 +404,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA053F04-BD89-4A6D-97BB-298F30F961A2}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Book_Shop_System/Test Data/TestData.xlsx
+++ b/Book_Shop_System/Test Data/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAIF KHAN\Desktop\Online_Book_Shop_System\Book_Shop\Book_Shop_System\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52A157C-7518-43EF-999E-7C7885BBF93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20781DB-118B-4801-96B2-A06055B31692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{797C52C8-CA55-4A50-A0A3-1C14D0DE00C4}"/>
+    <workbookView xWindow="2988" yWindow="2100" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{797C52C8-CA55-4A50-A0A3-1C14D0DE00C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Afshan Mansuri" sheetId="4" r:id="rId1"/>
@@ -35,12 +35,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>The Book Shop</t>
   </si>
   <si>
     <t>Like a Love Song</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regional </t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health </t>
   </si>
 </sst>
 </file>
@@ -404,10 +416,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA053F04-BD89-4A6D-97BB-298F30F961A2}">
-  <dimension ref="A2:A3"/>
+  <dimension ref="A2:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,6 +434,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book_Shop_System/Test Data/TestData.xlsx
+++ b/Book_Shop_System/Test Data/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAIF KHAN\Desktop\Online_Book_Shop_System\Book_Shop\Book_Shop_System\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20781DB-118B-4801-96B2-A06055B31692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69069FB-C660-477B-9C51-D1AF25807A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2988" yWindow="2100" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{797C52C8-CA55-4A50-A0A3-1C14D0DE00C4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{797C52C8-CA55-4A50-A0A3-1C14D0DE00C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Afshan Mansuri" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>The Book Shop</t>
   </si>
@@ -53,6 +53,18 @@
   </si>
   <si>
     <t xml:space="preserve">Health </t>
+  </si>
+  <si>
+    <t>Business and Management STORE</t>
+  </si>
+  <si>
+    <t>Children and Teens STORE</t>
+  </si>
+  <si>
+    <t>Regional Books STORE</t>
+  </si>
+  <si>
+    <t>Health and Cooking STORE</t>
   </si>
 </sst>
 </file>
@@ -416,42 +428,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA053F04-BD89-4A6D-97BB-298F30F961A2}">
-  <dimension ref="A2:A8"/>
+  <dimension ref="A2:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Book_Shop_System/Test Data/TestData.xlsx
+++ b/Book_Shop_System/Test Data/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAIF KHAN\Desktop\Online_Book_Shop_System\Book_Shop\Book_Shop_System\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69069FB-C660-477B-9C51-D1AF25807A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFF96E6-A99C-4CEC-97C3-1CB75BA80831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{797C52C8-CA55-4A50-A0A3-1C14D0DE00C4}"/>
+    <workbookView xWindow="2664" yWindow="276" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{797C52C8-CA55-4A50-A0A3-1C14D0DE00C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Afshan Mansuri" sheetId="4" r:id="rId1"/>

--- a/Book_Shop_System/Test Data/TestData.xlsx
+++ b/Book_Shop_System/Test Data/TestData.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{443EE8BF-3E85-4AFE-A267-D0EB77750FED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F521A870-52EF-480B-8C6A-036FFF502EDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15660" windowHeight="6015" xr2:uid="{797C52C8-CA55-4A50-A0A3-1C14D0DE00C4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15660" windowHeight="6015" activeTab="1" xr2:uid="{797C52C8-CA55-4A50-A0A3-1C14D0DE00C4}"/>
   </bookViews>
   <sheets>
     <sheet name="AKmodule" sheetId="4" r:id="rId1"/>
-    <sheet name="Kaif Khan" sheetId="5" r:id="rId2"/>
+    <sheet name="SortByoption" sheetId="6" r:id="rId2"/>
+    <sheet name="Kaif Khan" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E24"/>
+  <oleSize ref="A1:P9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>BookNmae</t>
   </si>
@@ -181,13 +182,31 @@
   </si>
   <si>
     <t>Courage And Conviction : An Autobiography</t>
+  </si>
+  <si>
+    <t>TC_ID</t>
+  </si>
+  <si>
+    <t>SortOption</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Low to High price</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Highest to Lowest price</t>
+  </si>
+  <si>
+    <t>Low to High discount</t>
+  </si>
+  <si>
+    <t>Highest to Lowest discount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +252,14 @@
       <color rgb="FFE43719"/>
       <name val="Open sans"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -254,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -269,6 +296,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41BD8C2-5221-46C2-917A-1E2A249A1FB3}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -863,6 +896,61 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FDBA51-A95C-4384-B11F-C51DA36B1146}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="30">
+      <c r="A1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="60">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="60">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA053F04-BD89-4A6D-97BB-298F30F961A2}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Book_Shop_System/Test Data/TestData.xlsx
+++ b/Book_Shop_System/Test Data/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAIF KHAN\Desktop\Online_Book_Shop_System\Book_Shop\Book_Shop_System\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAIF KHAN\Desktop\Book_Shop\Book_Shop\Book_Shop_System\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFF96E6-A99C-4CEC-97C3-1CB75BA80831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B224233-13D1-4CA6-AD75-85C01573DFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2664" yWindow="276" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{797C52C8-CA55-4A50-A0A3-1C14D0DE00C4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{797C52C8-CA55-4A50-A0A3-1C14D0DE00C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Afshan Mansuri" sheetId="4" r:id="rId1"/>
@@ -431,7 +431,7 @@
   <dimension ref="A2:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Book_Shop_System/Test Data/TestData.xlsx
+++ b/Book_Shop_System/Test Data/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAIF KHAN\Desktop\Book_Shop\Book_Shop\Book_Shop_System\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B224233-13D1-4CA6-AD75-85C01573DFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C9129C-3C99-4B9F-BBC7-266DF10E3A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{797C52C8-CA55-4A50-A0A3-1C14D0DE00C4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="129">
   <si>
     <t>The Book Shop</t>
   </si>
@@ -65,6 +65,363 @@
   </si>
   <si>
     <t>Health and Cooking STORE</t>
+  </si>
+  <si>
+    <t>Cooking With Love:</t>
+  </si>
+  <si>
+    <t>Chanakya Mantra</t>
+  </si>
+  <si>
+    <t>Text and Cases 7th Edition</t>
+  </si>
+  <si>
+    <t>365 Wonders O</t>
+  </si>
+  <si>
+    <t>The Indian Economy : For UPSC And State Civil Services Preliminary And Main Examinations</t>
+  </si>
+  <si>
+    <t>General Knowledge 2017</t>
+  </si>
+  <si>
+    <t>Kiran</t>
+  </si>
+  <si>
+    <t>Previous Years Solved Papers &amp; 10 Practice Sets CMC (Vellore &amp; Ludhiana) Entrance Exam</t>
+  </si>
+  <si>
+    <t>IIM Indore IPM Full Length Test Series (Fully Solved)</t>
+  </si>
+  <si>
+    <t>Marketing Management</t>
+  </si>
+  <si>
+    <t>The Mega Yearbook 2016 - Current Affairs &amp; General Knowledge For Competitive Exams</t>
+  </si>
+  <si>
+    <t>Indian Polity (Civil Services Mains; CSAT; Civil Services General)</t>
+  </si>
+  <si>
+    <t>Guide To RRB Non Technical Recruitment Exam</t>
+  </si>
+  <si>
+    <t>General Studies Paper 1</t>
+  </si>
+  <si>
+    <t>Mechanical Engineering</t>
+  </si>
+  <si>
+    <t>ESE-2016 : Mechanical Engineering Conventional Solved Paper 2</t>
+  </si>
+  <si>
+    <t>Chetan Bhagat Collection</t>
+  </si>
+  <si>
+    <t>Ashwin Sanghi Boxset (Set Of 3 Books)</t>
+  </si>
+  <si>
+    <t>Tintin : Complete Adventures Of Tintin</t>
+  </si>
+  <si>
+    <t>Fifty Shades Trilogy (Set of 3 Books)</t>
+  </si>
+  <si>
+    <t>Code Red</t>
+  </si>
+  <si>
+    <t>Love . . . Not for Sale!</t>
+  </si>
+  <si>
+    <t>Ten Love Stories : An IndiBlogger Selection</t>
+  </si>
+  <si>
+    <t>Two Years Eight Months And Twenty Eight Nights: A Novel</t>
+  </si>
+  <si>
+    <t>The Girl in the Spider's Web</t>
+  </si>
+  <si>
+    <t>You're Trending In My Dreams</t>
+  </si>
+  <si>
+    <t>Tell Me A Story</t>
+  </si>
+  <si>
+    <t>Go Set A Watchman</t>
+  </si>
+  <si>
+    <t>Wings Of Fire: An Autobiography</t>
+  </si>
+  <si>
+    <t>The Z Factor : My Journey As The Wrong Man At The Right Time</t>
+  </si>
+  <si>
+    <t>Standing Guard: A Year In Opposition</t>
+  </si>
+  <si>
+    <t>The Turbulent Years: 1980–1996</t>
+  </si>
+  <si>
+    <t>Cracking The Code : My Journey To Bollywood</t>
+  </si>
+  <si>
+    <t>I Am Malala : The Girl Who Stood Up For Education And Was Shot By The Taliban</t>
+  </si>
+  <si>
+    <t>M.K. Gandhi: An Autobiography</t>
+  </si>
+  <si>
+    <t>Steve Jobs</t>
+  </si>
+  <si>
+    <t>The Substance And The Shadow: An Autobiography (Dilip Kumar)</t>
+  </si>
+  <si>
+    <t>Shantaram</t>
+  </si>
+  <si>
+    <t>Courage And Conviction : An Autobiography</t>
+  </si>
+  <si>
+    <t>Getting A Coding Job For Dummies</t>
+  </si>
+  <si>
+    <t>What Next? A Complete Course &amp; Career Guide After Class 12 In Delhi NCR</t>
+  </si>
+  <si>
+    <t>IIT Foundation For Class-X Science</t>
+  </si>
+  <si>
+    <t>Research Analytics</t>
+  </si>
+  <si>
+    <t>Get a Grip on Grammar</t>
+  </si>
+  <si>
+    <t>Practical Business Analytics Using SAS – A Hands-On Guide</t>
+  </si>
+  <si>
+    <t>Engineering Physics 1st Edition</t>
+  </si>
+  <si>
+    <t>Chemistry For JEE Main And Advanced 2016 (Combo Set Of 3 Books)</t>
+  </si>
+  <si>
+    <t>Mechanics Of Materials</t>
+  </si>
+  <si>
+    <t>Python For Data Science For Dummies</t>
+  </si>
+  <si>
+    <t>Data Science And Big Data Analytics</t>
+  </si>
+  <si>
+    <t>Professional AngularJS</t>
+  </si>
+  <si>
+    <t>365 Bedtime Stories</t>
+  </si>
+  <si>
+    <t>365 Stories For Girls</t>
+  </si>
+  <si>
+    <t>Chacha Chaudhary Set of 5 Digests</t>
+  </si>
+  <si>
+    <t>365 Tales Of Indian Mythology</t>
+  </si>
+  <si>
+    <t>365 Panchatantra Stories</t>
+  </si>
+  <si>
+    <t>Diary of a Wimpy Kid: Rodrick Rules</t>
+  </si>
+  <si>
+    <t>The Adventures Of Stoob : A Difficult Stage</t>
+  </si>
+  <si>
+    <t>The Kingdom of Fantasy (Book - 1)</t>
+  </si>
+  <si>
+    <t>365 Stories For Boys</t>
+  </si>
+  <si>
+    <t>365 Wonders Of The World</t>
+  </si>
+  <si>
+    <t>365 Animal Tales</t>
+  </si>
+  <si>
+    <t>Geronimo Stilton #49 The Way Of The Samurai</t>
+  </si>
+  <si>
+    <t>Madhushala</t>
+  </si>
+  <si>
+    <t>Ayurvediya Garbha Sanskar</t>
+  </si>
+  <si>
+    <t>Ikshvaku Ke Vanshaj</t>
+  </si>
+  <si>
+    <t>The Secret Of The Nagas</t>
+  </si>
+  <si>
+    <t>Vayuputron Ki Shapath : Shiva Rachna Traya 3 (Hindi)</t>
+  </si>
+  <si>
+    <t>Chooa Aasmaan</t>
+  </si>
+  <si>
+    <t>Half Girlfriend</t>
+  </si>
+  <si>
+    <t>Bharat Ki Rajvyavastha</t>
+  </si>
+  <si>
+    <t>Meluha Ke Mrityunjay (Marathi)</t>
+  </si>
+  <si>
+    <t>Indian Economy</t>
+  </si>
+  <si>
+    <t>Asura: Tale Of The Vanquished</t>
+  </si>
+  <si>
+    <t>Revolution 2020</t>
+  </si>
+  <si>
+    <t>PROJECTS</t>
+  </si>
+  <si>
+    <t>Advanced Bank Management For CAIIB</t>
+  </si>
+  <si>
+    <t>Project Management : The Managerial Process</t>
+  </si>
+  <si>
+    <t>Fundamentals Of Business Economics</t>
+  </si>
+  <si>
+    <t>Quality Assurance And Quality Management</t>
+  </si>
+  <si>
+    <t>Next Generation Librarianship Strategies For Change Management</t>
+  </si>
+  <si>
+    <t>Consumer Behaviour</t>
+  </si>
+  <si>
+    <t>Business Research Methods 8th Edition</t>
+  </si>
+  <si>
+    <t>Stay Hungry Stay Foolish</t>
+  </si>
+  <si>
+    <t>Human Resource Management : Text and Cases 7th Edition</t>
+  </si>
+  <si>
+    <t>Indian Family Business Mantras</t>
+  </si>
+  <si>
+    <t>Kiran’s SSC Mathematics Chapterwise Solved Papers 1999 To Till Date – 7100+ Objective Questions (English)</t>
+  </si>
+  <si>
+    <t>Savour Mumbai: A Culinary Journey Through India's Melting Pot</t>
+  </si>
+  <si>
+    <t>Cake &amp; Bakes</t>
+  </si>
+  <si>
+    <t>Vicky Goes Veg</t>
+  </si>
+  <si>
+    <t>Masterchef India: Cookbook</t>
+  </si>
+  <si>
+    <t>Pure Vegetarian Cookbook</t>
+  </si>
+  <si>
+    <t>Big Book of Treats; The</t>
+  </si>
+  <si>
+    <t>101 Vegetarian Recipes</t>
+  </si>
+  <si>
+    <t>Cookbook Festivals Of India</t>
+  </si>
+  <si>
+    <t>Cooking With Love: Vegetarian Recipes From My Mother's Kitchen</t>
+  </si>
+  <si>
+    <t>Growing Children</t>
+  </si>
+  <si>
+    <t>Cooking Italian Food in India</t>
+  </si>
+  <si>
+    <t>101 Recipes For Children Vegetarian</t>
+  </si>
+  <si>
+    <t>She Broke Up I Didn’t! I Just Kissed Someone Else!</t>
+  </si>
+  <si>
+    <t>When Only Love Remains</t>
+  </si>
+  <si>
+    <t>Till the Last Breath</t>
+  </si>
+  <si>
+    <t>Our Impossible Love</t>
+  </si>
+  <si>
+    <t>One Night @ The Call Centre</t>
+  </si>
+  <si>
+    <t>Five Point Someone : What Not To Do At IIT</t>
+  </si>
+  <si>
+    <t>Revolution 2020: Love Corruption Ambition</t>
+  </si>
+  <si>
+    <t>The Lost Symbol</t>
+  </si>
+  <si>
+    <t>Lol - An Eclectic Tale Of Love</t>
+  </si>
+  <si>
+    <t>Can Love Happen Twice?</t>
+  </si>
+  <si>
+    <t>Your Dreams Are Mine Now</t>
+  </si>
+  <si>
+    <t>Jeffrey Archer - Kane And Abel</t>
+  </si>
+  <si>
+    <t>Jeffrey Archer - A Prisoner Of Birth</t>
+  </si>
+  <si>
+    <t>Love Curse Of The Rumbaughs</t>
+  </si>
+  <si>
+    <t>Sins Of The Father</t>
+  </si>
+  <si>
+    <t>Torn</t>
+  </si>
+  <si>
+    <t>Harry Potter and the Half-Blood Prince</t>
+  </si>
+  <si>
+    <t>Career Of Evil : A Cormoran Strike Novel</t>
+  </si>
+  <si>
+    <t>Harry Potter And The Goblet Of Fire</t>
+  </si>
+  <si>
+    <t>Life Mantras</t>
   </si>
 </sst>
 </file>
@@ -428,54 +785,639 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA053F04-BD89-4A6D-97BB-298F30F961A2}">
-  <dimension ref="A2:B8"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H55" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H58" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H60" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H61" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H62" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H64" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H65" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H66" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H67" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H68" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H70" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H73" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H74" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H75" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H77" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H78" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H79" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H80" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H81" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H82" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H83" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H84" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="85" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H85" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H86" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="87" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H87" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="88" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H88" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H89" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H90" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H91" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H92" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H93" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="94" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H94" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="95" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H95" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="96" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H96" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="97" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H97" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="98" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H98" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H99" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="100" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H100" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H101" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="102" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H102" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="103" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H103" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="104" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H104" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="105" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H105" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="106" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H106" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="107" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H107" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="108" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H108" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="109" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H109" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="110" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H110" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="111" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H111" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="112" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H112" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="113" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H113" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="114" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H114" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="115" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H115" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="116" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H116" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="117" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H117" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/Book_Shop_System/Test Data/TestData.xlsx
+++ b/Book_Shop_System/Test Data/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAIF KHAN\Desktop\Book_Shop\Book_Shop\Book_Shop_System\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C9129C-3C99-4B9F-BBC7-266DF10E3A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D98E6A-97D6-480A-A5E9-4A748C7B77AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{797C52C8-CA55-4A50-A0A3-1C14D0DE00C4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="137">
   <si>
     <t>The Book Shop</t>
   </si>
@@ -422,6 +422,30 @@
   </si>
   <si>
     <t>Life Mantras</t>
+  </si>
+  <si>
+    <t>DURJOY DATTA STORE</t>
+  </si>
+  <si>
+    <t>J K ROWLING STORE</t>
+  </si>
+  <si>
+    <t>SUBRATA ROY STORE</t>
+  </si>
+  <si>
+    <t>Durjoy</t>
+  </si>
+  <si>
+    <t>Rowling</t>
+  </si>
+  <si>
+    <t>Subrata</t>
+  </si>
+  <si>
+    <t>Ravinder</t>
+  </si>
+  <si>
+    <t>RAVINDER SINGH STORE</t>
   </si>
 </sst>
 </file>
@@ -788,10 +812,14 @@
   <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="76" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H1" t="s">
@@ -901,96 +929,120 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
       <c r="H14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" t="s">
+        <v>130</v>
+      </c>
       <c r="H15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="s">
+        <v>131</v>
+      </c>
       <c r="H16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" t="s">
+        <v>136</v>
+      </c>
       <c r="H17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H27" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H32" t="s">
         <v>45</v>
       </c>

--- a/Book_Shop_System/Test Data/TestData.xlsx
+++ b/Book_Shop_System/Test Data/TestData.xlsx
@@ -1,34 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAIF KHAN\Desktop\Online_Book_Shop_System\Book_Shop\Book_Shop_System\Test Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFF96E6-A99C-4CEC-97C3-1CB75BA80831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A838E680-344C-427D-8395-BFB637BFAF53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2664" yWindow="276" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{797C52C8-CA55-4A50-A0A3-1C14D0DE00C4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14130" windowHeight="6015" xr2:uid="{797C52C8-CA55-4A50-A0A3-1C14D0DE00C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Afshan Mansuri" sheetId="4" r:id="rId1"/>
     <sheet name="Kaif Khan" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:N18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -418,9 +405,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41BD8C2-5221-46C2-917A-1E2A249A1FB3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -430,23 +419,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA053F04-BD89-4A6D-97BB-298F30F961A2}">
   <dimension ref="A2:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -454,7 +443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -462,7 +451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -470,7 +459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
